--- a/documentation/ERD Diagram.xlsx
+++ b/documentation/ERD Diagram.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Ratliff Drive/Projects/excella-badges/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D93010-AAB4-ED4C-95C2-230C59664F07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA05B63A-7298-C943-A230-EEF559239328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="-6800" windowWidth="38400" windowHeight="19720" xr2:uid="{8A12091D-5711-3445-86BD-2D461F98DB31}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="ERD Diagram" sheetId="1" r:id="rId1"/>
     <sheet name="API" sheetId="3" r:id="rId2"/>
     <sheet name="Models" sheetId="4" r:id="rId3"/>
+    <sheet name="Seed Data" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="139">
   <si>
     <t>Excella Badges</t>
   </si>
@@ -315,24 +316,15 @@
     <t>name of skill level</t>
   </si>
   <si>
-    <t>Beginner, Intermediate, Advanced</t>
-  </si>
-  <si>
     <t>name of the capability</t>
   </si>
   <si>
-    <t>Java, .Net, Agile, Marketing, Python, Kanban, Data Visualization, Data Science, Data Engineering</t>
-  </si>
-  <si>
     <t>BadgeType</t>
   </si>
   <si>
     <t>type of badge</t>
   </si>
   <si>
-    <t>Achievement, Certification, Challenge, etc..</t>
-  </si>
-  <si>
     <t>user_id</t>
   </si>
   <si>
@@ -358,6 +350,111 @@
   </si>
   <si>
     <t>Expert</t>
+  </si>
+  <si>
+    <t>Discipline</t>
+  </si>
+  <si>
+    <t>Development</t>
+  </si>
+  <si>
+    <t>Data Science</t>
+  </si>
+  <si>
+    <t>Data Visualization</t>
+  </si>
+  <si>
+    <t>Kanban</t>
+  </si>
+  <si>
+    <t>name of the discipline</t>
+  </si>
+  <si>
+    <t>/discipline</t>
+  </si>
+  <si>
+    <t>Returns list of all disciplines</t>
+  </si>
+  <si>
+    <t>/discipline/capability/{id}</t>
+  </si>
+  <si>
+    <t>Discipline[]</t>
+  </si>
+  <si>
+    <t>Returns list of disciplines for a given capability</t>
+  </si>
+  <si>
+    <t>Returns list of badges for a given discipline</t>
+  </si>
+  <si>
+    <t>/badge/discipline/{id}</t>
+  </si>
+  <si>
+    <t>Solutions Architect</t>
+  </si>
+  <si>
+    <t>DevOps</t>
+  </si>
+  <si>
+    <t>Design</t>
+  </si>
+  <si>
+    <t>Ruby</t>
+  </si>
+  <si>
+    <t>Angular</t>
+  </si>
+  <si>
+    <t>React</t>
+  </si>
+  <si>
+    <t>Vue</t>
+  </si>
+  <si>
+    <t>Jquery</t>
+  </si>
+  <si>
+    <t>Java Spring</t>
+  </si>
+  <si>
+    <t>JavaScript</t>
+  </si>
+  <si>
+    <t>Django</t>
+  </si>
+  <si>
+    <t>Scrum</t>
+  </si>
+  <si>
+    <t>AWS</t>
+  </si>
+  <si>
+    <t>Jenkins</t>
+  </si>
+  <si>
+    <t>SSO</t>
+  </si>
+  <si>
+    <t>Azure</t>
+  </si>
+  <si>
+    <t>Heroku</t>
+  </si>
+  <si>
+    <t>Data Engineering</t>
+  </si>
+  <si>
+    <t>Capability Lead</t>
+  </si>
+  <si>
+    <t>Interviewing</t>
+  </si>
+  <si>
+    <t>System Design</t>
+  </si>
+  <si>
+    <t>Xpert</t>
   </si>
 </sst>
 </file>
@@ -408,10 +505,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -433,16 +531,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>33868</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>42333</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>287868</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>8468</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>76201</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>67732</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>643467</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>25402</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -457,8 +555,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="863601" y="982133"/>
-          <a:ext cx="1701800" cy="1854199"/>
+          <a:off x="287868" y="745068"/>
+          <a:ext cx="1185332" cy="1845734"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -559,16 +657,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>16933</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>296333</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>524933</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>67733</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>745067</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -583,7 +681,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5884333" y="956733"/>
+          <a:off x="4445000" y="787400"/>
           <a:ext cx="1278467" cy="1879600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -655,7 +753,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>capability_id</a:t>
+            <a:t>discipline_id</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -685,16 +783,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>76201</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>643468</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>16933</xdr:rowOff>
+      <xdr:rowOff>118533</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>16934</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>156632</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>330201</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>118534</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -713,8 +811,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipV="1">
-          <a:off x="2565401" y="1566333"/>
-          <a:ext cx="770466" cy="342899"/>
+          <a:off x="1473201" y="1667933"/>
+          <a:ext cx="516467" cy="1"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -742,16 +840,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>313267</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>16934</xdr:rowOff>
+      <xdr:rowOff>118534</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>143933</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>296333</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -770,8 +868,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4978400" y="1566334"/>
-          <a:ext cx="905933" cy="330199"/>
+          <a:off x="3632200" y="1667934"/>
+          <a:ext cx="812800" cy="59266"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -799,16 +897,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>16934</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>152401</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>50801</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>313267</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>84667</xdr:rowOff>
+      <xdr:rowOff>186267</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -823,7 +921,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3335867" y="889001"/>
+          <a:off x="1989667" y="990601"/>
           <a:ext cx="1642533" cy="1354666"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -904,16 +1002,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>829731</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>186267</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>736598</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>76199</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>812799</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>194734</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -928,7 +1026,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4148664" y="3767667"/>
+          <a:off x="1566331" y="3556000"/>
           <a:ext cx="1735668" cy="829734"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -988,16 +1086,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>550334</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>177802</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>787402</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>135469</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>533401</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>770469</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>194734</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1012,8 +1110,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7188201" y="3759202"/>
-          <a:ext cx="1642533" cy="863598"/>
+          <a:off x="4936069" y="4732869"/>
+          <a:ext cx="1642533" cy="872065"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1072,16 +1170,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>38098</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>67734</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>774698</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>101601</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>715434</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>186268</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>105834</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>177801</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1100,8 +1198,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="5304366" y="2548466"/>
-          <a:ext cx="931334" cy="1507069"/>
+          <a:off x="3314700" y="1786466"/>
+          <a:ext cx="889000" cy="2650069"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -1129,16 +1227,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>715434</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>67732</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>105834</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>101599</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>541868</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>177801</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>770467</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>194732</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1152,13 +1250,13 @@
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks/>
           <a:stCxn id="4" idx="2"/>
-          <a:endCxn id="13" idx="0"/>
+          <a:endCxn id="29" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="6805083" y="2554816"/>
-          <a:ext cx="922869" cy="1485901"/>
+          <a:off x="5065184" y="2686049"/>
+          <a:ext cx="702733" cy="664633"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -1188,16 +1286,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>533401</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>694269</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>821268</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>152402</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>50799</xdr:rowOff>
+      <xdr:rowOff>203199</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1212,7 +1310,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8001001" y="914400"/>
+          <a:off x="6502402" y="1066800"/>
           <a:ext cx="1117600" cy="888999"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1272,16 +1370,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>524933</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>745067</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>533401</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>143933</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>694269</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1300,11 +1398,161 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="7162800" y="1358900"/>
-          <a:ext cx="838201" cy="537633"/>
+          <a:off x="5723467" y="1511300"/>
+          <a:ext cx="778935" cy="215900"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>778933</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>194733</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>186266</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="Rectangle 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50932F35-6857-694E-BB8F-C61B31C9ADC6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4927600" y="3369733"/>
+          <a:ext cx="1642533" cy="1007533"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Discipline</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>-----------------------</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>id</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>name</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>capability_id</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>770467</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>186265</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>778936</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>135468</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="Elbow Connector 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A94DFD9-AE5B-8A48-9C5B-08D23ABCC215}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="29" idx="2"/>
+          <a:endCxn id="13" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="5575300" y="4550832"/>
+          <a:ext cx="355603" cy="8469"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
         </a:prstGeom>
         <a:ln>
           <a:tailEnd type="triangle"/>
@@ -1627,45 +1875,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4E711D-A889-F840-B38C-48F66B50F2D4}">
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K1" t="s">
+      <c r="I1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L5" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L6" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L8" t="s">
-        <v>104</v>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I13" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="I17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="I18" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="5:9" x14ac:dyDescent="0.2">
@@ -1673,7 +1931,7 @@
         <v>4</v>
       </c>
       <c r="I19" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="5:9" x14ac:dyDescent="0.2">
@@ -1681,38 +1939,50 @@
         <v>5</v>
       </c>
       <c r="I20" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E21" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="I21" t="s">
-        <v>8</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E22" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="I24" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="I25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="I26" t="s">
         <v>106</v>
-      </c>
-      <c r="I22" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9932216B-7A50-3D46-B5D7-19265EC37A39}">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView topLeftCell="A3" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1723,15 +1993,15 @@
     <col min="4" max="4" width="47.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E1" t="s">
+      <c r="D1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
@@ -1745,7 +2015,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>41</v>
       </c>
@@ -1759,7 +2029,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>55</v>
       </c>
@@ -1773,7 +2043,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>39</v>
       </c>
@@ -1787,7 +2057,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>44</v>
       </c>
@@ -1801,7 +2071,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>45</v>
       </c>
@@ -1815,7 +2085,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>49</v>
       </c>
@@ -1829,51 +2099,37 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>56</v>
+        <v>110</v>
       </c>
       <c r="B15" t="s">
         <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>113</v>
       </c>
       <c r="D15" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>112</v>
       </c>
       <c r="B16" t="s">
         <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>2</v>
+        <v>113</v>
       </c>
       <c r="D16" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>57</v>
-      </c>
-      <c r="B17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B18" t="s">
         <v>20</v>
@@ -1882,68 +2138,68 @@
         <v>51</v>
       </c>
       <c r="D18" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="D20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="B21" t="s">
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="D21" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>65</v>
+        <v>116</v>
       </c>
       <c r="B22" t="s">
         <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="D22" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>66</v>
-      </c>
-      <c r="B23" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" t="s">
-        <v>62</v>
-      </c>
-      <c r="D23" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B24" t="s">
         <v>20</v>
@@ -1952,25 +2208,81 @@
         <v>62</v>
       </c>
       <c r="D24" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>74</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B30" t="s">
         <v>73</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C30" t="s">
         <v>77</v>
       </c>
-      <c r="E26" t="s">
+      <c r="D30" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1982,10 +2294,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91EEAA94-EA24-CE4C-9C6A-74D7F09A4391}">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView topLeftCell="A9" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2138,7 +2450,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>83</v>
       </c>
@@ -2149,7 +2461,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>85</v>
       </c>
@@ -2160,7 +2472,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>88</v>
       </c>
@@ -2171,12 +2483,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -2187,7 +2499,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>78</v>
       </c>
@@ -2197,16 +2509,13 @@
       <c r="C23" t="s">
         <v>91</v>
       </c>
-      <c r="D23" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>22</v>
       </c>
@@ -2217,7 +2526,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>78</v>
       </c>
@@ -2225,18 +2534,15 @@
         <v>24</v>
       </c>
       <c r="C27" t="s">
-        <v>93</v>
-      </c>
-      <c r="D27" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>22</v>
       </c>
@@ -2247,7 +2553,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>78</v>
       </c>
@@ -2255,63 +2561,342 @@
         <v>24</v>
       </c>
       <c r="C31" t="s">
-        <v>96</v>
-      </c>
-      <c r="D31" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
-        <v>71</v>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>22</v>
-      </c>
-      <c r="B34" t="s">
-        <v>25</v>
-      </c>
-      <c r="C34" t="s">
-        <v>90</v>
+      <c r="A34" s="2" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="B35" t="s">
         <v>25</v>
       </c>
       <c r="C35" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="B36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>22</v>
+      </c>
+      <c r="B39" t="s">
         <v>25</v>
       </c>
-      <c r="C36" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+      <c r="C39" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>95</v>
+      </c>
+      <c r="B40" t="s">
+        <v>25</v>
+      </c>
+      <c r="C40" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>97</v>
+      </c>
+      <c r="B41" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>87</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B42" t="s">
         <v>24</v>
       </c>
-      <c r="C37" t="s">
-        <v>102</v>
+      <c r="C42" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D7FB9C0-6D9B-EA43-86CE-62488FCDBEBD}">
+  <dimension ref="A1:B51"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>138</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/documentation/ERD Diagram.xlsx
+++ b/documentation/ERD Diagram.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Ratliff Drive/Projects/excella-badges/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA05B63A-7298-C943-A230-EEF559239328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B3A3BA5-1EF6-1A4C-8A3F-4C4F3C6F6F42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-6800" windowWidth="38400" windowHeight="19720" xr2:uid="{8A12091D-5711-3445-86BD-2D461F98DB31}"/>
+    <workbookView xWindow="28800" yWindow="-7300" windowWidth="38400" windowHeight="21600" activeTab="3" xr2:uid="{8A12091D-5711-3445-86BD-2D461F98DB31}"/>
   </bookViews>
   <sheets>
     <sheet name="ERD Diagram" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Seed Data" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -461,7 +462,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -479,6 +480,21 @@
     </font>
     <font>
       <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -505,11 +521,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -538,9 +555,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>643467</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>25402</xdr:rowOff>
+      <xdr:colOff>270934</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>59267</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -556,7 +573,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="287868" y="745068"/>
-          <a:ext cx="1185332" cy="1845734"/>
+          <a:ext cx="812799" cy="1676399"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -584,70 +601,70 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
+            <a:rPr lang="en-US" sz="900"/>
             <a:t>User</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>---------------------</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
+            <a:rPr lang="en-US" sz="900"/>
+            <a:t>-----------------</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="900"/>
             <a:t>id</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
+            <a:rPr lang="en-US" sz="900"/>
             <a:t>firstname</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
+            <a:rPr lang="en-US" sz="900"/>
             <a:t>lastname</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
+            <a:rPr lang="en-US" sz="900"/>
             <a:t>email</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
+            <a:rPr lang="en-US" sz="900"/>
             <a:t>title</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
+            <a:rPr lang="en-US" sz="900"/>
             <a:t>role</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
+            <a:rPr lang="en-US" sz="900"/>
             <a:t>primary_skill</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
+            <a:rPr lang="en-US" sz="900"/>
             <a:t>archived</a:t>
           </a:r>
         </a:p>
@@ -657,16 +674,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>296333</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>448734</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>745067</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>711201</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>93133</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -681,8 +698,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4445000" y="787400"/>
-          <a:ext cx="1278467" cy="1879600"/>
+          <a:off x="2937934" y="558800"/>
+          <a:ext cx="1092200" cy="1693333"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -710,70 +727,70 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
+            <a:rPr lang="en-US" sz="1000"/>
             <a:t>Badge</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
+            <a:rPr lang="en-US" sz="1000"/>
             <a:t>---------------------</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
+            <a:rPr lang="en-US" sz="1000"/>
             <a:t>id</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
+            <a:rPr lang="en-US" sz="1000"/>
             <a:t>name</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
+            <a:rPr lang="en-US" sz="1000"/>
             <a:t>icon</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
+            <a:rPr lang="en-US" sz="1000"/>
             <a:t>image</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
+            <a:rPr lang="en-US" sz="1000"/>
             <a:t>discipline_id</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
+            <a:rPr lang="en-US" sz="1000"/>
             <a:t>badge_type_id</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
+            <a:rPr lang="en-US" sz="1000"/>
             <a:t>skill_level_id</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
+            <a:rPr lang="en-US" sz="1000"/>
             <a:t>archived</a:t>
           </a:r>
         </a:p>
@@ -784,15 +801,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>643468</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>118533</xdr:rowOff>
+      <xdr:colOff>270935</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>330201</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>592670</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>118534</xdr:rowOff>
+      <xdr:rowOff>33867</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -805,14 +822,14 @@
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks/>
-          <a:stCxn id="11" idx="1"/>
+          <a:stCxn id="18" idx="1"/>
           <a:endCxn id="2" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipV="1">
-          <a:off x="1473201" y="1667933"/>
-          <a:ext cx="516467" cy="1"/>
+          <a:off x="1100668" y="1498600"/>
+          <a:ext cx="321735" cy="84667"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -840,16 +857,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>313267</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>118534</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>93134</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>59267</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>296333</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>448734</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -862,14 +879,14 @@
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks/>
-          <a:stCxn id="11" idx="3"/>
+          <a:stCxn id="18" idx="3"/>
           <a:endCxn id="4" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3632200" y="1667934"/>
-          <a:ext cx="812800" cy="59266"/>
+        <a:xfrm flipV="1">
+          <a:off x="2582334" y="1405467"/>
+          <a:ext cx="355600" cy="93134"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -897,121 +914,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>50801</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>143930</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>33866</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>313267</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>186267</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="Rectangle 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{582D910C-003D-D842-845B-7B07EFB0F09A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1989667" y="990601"/>
-          <a:ext cx="1642533" cy="1354666"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>UserBadges</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>-----------------------</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>id</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>user_id</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>badge_id</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>assignment_date</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>notes</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>736598</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>812799</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>194734</xdr:rowOff>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1026,8 +938,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1566331" y="3556000"/>
-          <a:ext cx="1735668" cy="829734"/>
+          <a:off x="143930" y="2802466"/>
+          <a:ext cx="762002" cy="829734"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1055,28 +967,28 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
+            <a:rPr lang="en-US" sz="1000"/>
             <a:t>SkillLevel</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>-----------------------</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t>-----------</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
             <a:t>id</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
+            <a:rPr lang="en-US" sz="1000"/>
             <a:t>name</a:t>
           </a:r>
         </a:p>
@@ -1086,16 +998,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>787402</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>135469</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>372536</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>101603</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>770469</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>194734</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1110,8 +1022,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4936069" y="4732869"/>
-          <a:ext cx="1642533" cy="872065"/>
+          <a:off x="2032003" y="4495803"/>
+          <a:ext cx="1244597" cy="787397"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1139,28 +1051,28 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
+            <a:rPr lang="en-US" sz="1000"/>
             <a:t>Capability</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
+            <a:rPr lang="en-US" sz="1000"/>
             <a:t>-----------------------</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
+            <a:rPr lang="en-US" sz="1000"/>
             <a:t>id</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
+            <a:rPr lang="en-US" sz="1000"/>
             <a:t>name</a:t>
           </a:r>
         </a:p>
@@ -1170,16 +1082,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>774698</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>101601</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>524932</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>93133</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>105834</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>177801</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>165102</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>33866</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1198,8 +1110,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="3314700" y="1786466"/>
-          <a:ext cx="889000" cy="2650069"/>
+          <a:off x="1729317" y="1047748"/>
+          <a:ext cx="550333" cy="2959103"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -1227,16 +1139,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>105834</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>101599</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>148168</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>93133</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>770467</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>194732</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>165102</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>67734</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1254,9 +1166,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="5065184" y="2686049"/>
-          <a:ext cx="702733" cy="664633"/>
+        <a:xfrm rot="5400000">
+          <a:off x="2667001" y="2222500"/>
+          <a:ext cx="787401" cy="846667"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -1286,16 +1198,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>694269</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>262468</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>16933</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>152402</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>465667</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>203199</xdr:rowOff>
+      <xdr:rowOff>93132</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1310,8 +1222,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6502402" y="1066800"/>
-          <a:ext cx="1117600" cy="888999"/>
+          <a:off x="4411135" y="956733"/>
+          <a:ext cx="1032932" cy="888999"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1339,28 +1251,28 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
+            <a:rPr lang="en-US" sz="1000"/>
             <a:t>BadgeType</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
+            <a:rPr lang="en-US" sz="1000"/>
             <a:t>---------------------</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
+            <a:rPr lang="en-US" sz="1000"/>
             <a:t>id</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
+            <a:rPr lang="en-US" sz="1000"/>
             <a:t>name</a:t>
           </a:r>
         </a:p>
@@ -1370,16 +1282,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>745067</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>711201</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:rowOff>55033</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>694269</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>262468</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>59267</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1398,8 +1310,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5723467" y="1511300"/>
-          <a:ext cx="778935" cy="215900"/>
+          <a:off x="4030134" y="1401233"/>
+          <a:ext cx="381001" cy="4234"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -1427,16 +1339,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>778933</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>194733</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>67734</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>186266</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>745067</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>186268</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1451,8 +1363,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4927600" y="3369733"/>
-          <a:ext cx="1642533" cy="1007533"/>
+          <a:off x="2040467" y="3039534"/>
+          <a:ext cx="1193800" cy="931334"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1480,35 +1392,35 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
+            <a:rPr lang="en-US" sz="1000"/>
             <a:t>Discipline</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
+            <a:rPr lang="en-US" sz="1000"/>
             <a:t>-----------------------</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
+            <a:rPr lang="en-US" sz="1000"/>
             <a:t>id</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
+            <a:rPr lang="en-US" sz="1000"/>
             <a:t>name</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
+            <a:rPr lang="en-US" sz="1000"/>
             <a:t>capability_id</a:t>
           </a:r>
         </a:p>
@@ -1518,16 +1430,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>770467</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>186265</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>148167</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>186267</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>778936</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>135468</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>165102</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>101602</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1546,8 +1458,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="5575300" y="4550832"/>
-          <a:ext cx="355603" cy="8469"/>
+          <a:off x="2383367" y="4224867"/>
+          <a:ext cx="524935" cy="16935"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -1573,6 +1485,111 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>592669</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>186268</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>93134</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>118533</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="Rectangle 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEA61D43-5F7D-2841-A730-92916DFE49E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1422402" y="922868"/>
+          <a:ext cx="1159932" cy="1151465"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t>UserBadges</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t>-----------------------</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t>id</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t>user_id</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t>badge_id</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t>assignment_date</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t>notes</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1875,98 +1892,100 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4E711D-A889-F840-B38C-48F66B50F2D4}">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView showGridLines="0" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I1" t="s">
+      <c r="F1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I10" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G10" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I11" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G11" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I12" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G12" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I13" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G13" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="17" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="I17" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E15" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="I18" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E16" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="19" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E19" t="s">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E17" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E20" t="s">
+      <c r="E18" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B19" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E21" t="s">
+      <c r="E19" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B20" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="I21" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="22" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E22" t="s">
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B21" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="24" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="I24" t="s">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E23" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="25" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="I25" t="s">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E24" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="I26" t="s">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E25" s="3" t="s">
         <v>106</v>
       </c>
     </row>
@@ -1979,18 +1998,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9932216B-7A50-3D46-B5D7-19265EC37A39}">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="45.6640625" customWidth="1"/>
-    <col min="2" max="2" width="9.83203125" customWidth="1"/>
-    <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="47.83203125" customWidth="1"/>
+    <col min="1" max="1" width="29.33203125" customWidth="1"/>
+    <col min="2" max="2" width="6.1640625" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" customWidth="1"/>
+    <col min="4" max="4" width="37.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -2002,289 +2021,346 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="4" t="s">
         <v>18</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+    </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="3" t="s">
         <v>42</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+    </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="3" t="s">
         <v>40</v>
       </c>
     </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+    </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="3" t="s">
         <v>43</v>
       </c>
     </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+    </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="3" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="A13" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="3" t="s">
         <v>50</v>
       </c>
     </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+    </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="A15" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="3" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="A16" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="3" t="s">
         <v>114</v>
       </c>
     </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+    </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="A18" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="3" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="A19" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="3" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="A20" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="3" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="A21" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="3" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="A22" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="3" t="s">
         <v>115</v>
       </c>
     </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+    </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="A24" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="3" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="A25" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="3" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="A26" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="3" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="A27" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="3" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="A28" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="3" t="s">
         <v>69</v>
       </c>
     </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+    </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="A30" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="3" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="A31" s="3" t="s">
         <v>75</v>
       </c>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2296,358 +2372,360 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91EEAA94-EA24-CE4C-9C6A-74D7F09A4391}">
   <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.83203125" customWidth="1"/>
-    <col min="3" max="3" width="32.1640625" customWidth="1"/>
+    <col min="1" max="1" width="16.83203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="3"/>
+    <col min="3" max="3" width="32.1640625" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="3" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="A13" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="A14" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="3" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="A15" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="3" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="A16" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="3" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="A17" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="A18" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="3" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="A19" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="3" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="A22" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="3" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="A23" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="3" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="A26" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="3" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="A27" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="3" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="4" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="A30" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="3" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="A31" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="3" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+      <c r="A32" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="3" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="4" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+      <c r="A35" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="3" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+      <c r="A36" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="3" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="4" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+      <c r="A39" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="3" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+      <c r="A40" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="3" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+      <c r="A41" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="3" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+      <c r="A42" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="3" t="s">
         <v>99</v>
       </c>
     </row>
@@ -2661,18 +2739,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D7FB9C0-6D9B-EA43-86CE-62488FCDBEBD}">
   <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" customWidth="1"/>
-    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="18" style="3" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2697,206 +2776,207 @@
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" s="3" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" s="3" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="A13" s="3" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="A14" s="3" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="A15" s="3" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="A16" s="3" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="A17" s="3" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="4" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="A21" s="3" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
+      <c r="B22" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
+      <c r="B23" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
+      <c r="B24" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
+      <c r="B25" s="3" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
+      <c r="B26" s="3" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
+      <c r="B27" s="3" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
+      <c r="B28" s="3" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
+      <c r="B29" s="3" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
+      <c r="B30" s="3" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
+      <c r="B31" s="3" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B32" t="s">
+      <c r="B32" s="3" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+      <c r="A33" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B34" t="s">
+      <c r="B34" s="3" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B35" t="s">
+      <c r="B35" s="3" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+      <c r="A37" s="3" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B38" t="s">
+      <c r="B38" s="3" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B39" t="s">
+      <c r="B39" s="3" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B40" t="s">
+      <c r="B40" s="3" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B41" t="s">
+      <c r="B41" s="3" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B42" t="s">
+      <c r="B42" s="3" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+      <c r="A43" s="3" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B44" t="s">
+      <c r="B44" s="3" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B45" t="s">
+      <c r="B45" s="3" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B46" t="s">
+      <c r="B46" s="3" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+      <c r="A47" s="3" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B48" t="s">
+      <c r="B48" s="3" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+      <c r="A49" s="3" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B50" t="s">
+      <c r="B50" s="3" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+      <c r="A51" s="3" t="s">
         <v>138</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>